--- a/Users/CreationDate & Reputation.xlsx
+++ b/Users/CreationDate & Reputation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wqc/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wqc/Desktop/Stackoverflow-data-analysis/Users/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,6 +24,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -258,6 +262,80 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -307,9 +385,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -594,37 +670,43 @@
           </c:dLbls>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="4"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>reputation&gt;100</c:v>
+                <c:v>R&lt;20</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>100&lt;=reputation&lt;500</c:v>
+                <c:v>20&lt;=R&lt;100</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>500&lt;=reputation&lt;1000</c:v>
+                <c:v>100&lt;=r&lt;500</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>reputation&gt;=1000</c:v>
+                <c:v>500&lt;=R&lt;1000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>R&gt;1000</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$B$23:$B$26</c:f>
+              <c:f>工作表1!$B$22:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7036.0</c:v>
+                  <c:v>3869.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3437.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1458.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>428.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>536.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -705,37 +787,43 @@
           </c:dLbls>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="4"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>reputation&gt;100</c:v>
+                <c:v>R&lt;20</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>100&lt;=reputation&lt;500</c:v>
+                <c:v>20&lt;=R&lt;100</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>500&lt;=reputation&lt;1000</c:v>
+                <c:v>100&lt;=r&lt;500</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>reputation&gt;=1000</c:v>
+                <c:v>500&lt;=R&lt;1000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>R&gt;1000</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$23:$C$26</c:f>
+              <c:f>工作表1!$C$22:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6389.0</c:v>
+                  <c:v>3055.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3334.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2499.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1034.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1635.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -816,37 +904,43 @@
           </c:dLbls>
           <c:cat>
             <c:strLit>
-              <c:ptCount val="4"/>
+              <c:ptCount val="5"/>
               <c:pt idx="0">
-                <c:v>reputation&gt;100</c:v>
+                <c:v>R&lt;20</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>100&lt;=reputation&lt;500</c:v>
+                <c:v>20&lt;=R&lt;100</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>500&lt;=reputation&lt;1000</c:v>
+                <c:v>100&lt;=r&lt;500</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>reputation&gt;=1000</c:v>
+                <c:v>500&lt;=R&lt;1000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>R&gt;1000</c:v>
               </c:pt>
             </c:strLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$D$23:$D$26</c:f>
+              <c:f>工作表1!$D$22:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10113.0</c:v>
+                  <c:v>10086.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>42.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -864,11 +958,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2088466112"/>
-        <c:axId val="-2088446832"/>
+        <c:axId val="-2140995168"/>
+        <c:axId val="-2110483040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2088466112"/>
+        <c:axId val="-2140995168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +1005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088446832"/>
+        <c:crossAx val="-2110483040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -919,7 +1013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088446832"/>
+        <c:axId val="-2110483040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,6 +1033,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -969,7 +1064,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088466112"/>
+        <c:crossAx val="-2140995168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2907,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2923,15 +3018,26 @@
         <v>21697</v>
       </c>
     </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>3869</v>
+      </c>
+      <c r="C22">
+        <v>3055</v>
+      </c>
+      <c r="D22">
+        <v>10086</v>
+      </c>
+    </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>7036</v>
+        <v>3437</v>
       </c>
       <c r="C23">
-        <v>6389</v>
+        <v>3334</v>
       </c>
       <c r="D23">
-        <v>10113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">

--- a/Users/CreationDate & Reputation.xlsx
+++ b/Users/CreationDate & Reputation.xlsx
@@ -27,7 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -106,13 +111,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -139,13 +150,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -157,11 +174,10 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
-      <c:rotX val="50"/>
+      <c:rotX val="30"/>
       <c:rotY val="0"/>
       <c:depthPercent val="100"/>
       <c:rAngAx val="0"/>
-      <c:perspective val="60"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -217,48 +233,86 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
+              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="threePt" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="matte"/>
+              <a:sp3d/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
@@ -279,9 +333,11 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="lt1"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="85000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -316,9 +372,11 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="lt1"/>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="85000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -350,9 +408,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -372,14 +432,13 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -406,10 +465,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>9473.0</c:v>
+                  <c:v>11253.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21697.0</c:v>
+                  <c:v>24498.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,11 +498,7 @@
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="78000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -454,11 +509,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -475,24 +529,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:pattFill prst="dkDnDiag">
-      <a:fgClr>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:fgClr>
-      <a:bgClr>
-        <a:schemeClr val="lt1"/>
-      </a:bgClr>
-    </a:pattFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -695,19 +753,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3869.0</c:v>
+                  <c:v>4348.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3437.0</c:v>
+                  <c:v>3890.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1458.0</c:v>
+                  <c:v>1638.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>428.0</c:v>
+                  <c:v>469.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>536.0</c:v>
+                  <c:v>604.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,19 +870,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3055.0</c:v>
+                  <c:v>3390.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3334.0</c:v>
+                  <c:v>3760.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2499.0</c:v>
+                  <c:v>2708.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1034.0</c:v>
+                  <c:v>1149.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1635.0</c:v>
+                  <c:v>1752.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,13 +987,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10086.0</c:v>
+                  <c:v>11977.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -958,11 +1016,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2140995168"/>
-        <c:axId val="-2110483040"/>
+        <c:axId val="-2056425440"/>
+        <c:axId val="-2058297136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2140995168"/>
+        <c:axId val="-2056425440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +1063,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2110483040"/>
+        <c:crossAx val="-2058297136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1013,7 +1071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110483040"/>
+        <c:axId val="-2058297136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1107,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1064,7 +1122,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2140995168"/>
+        <c:crossAx val="-2056425440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1081,9 +1139,35 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -1195,8 +1279,83 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
   <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1206,83 +1365,10 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="dkDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:alpha val="75000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1291,64 +1377,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="25000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:effectLst>
-        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="20000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="threePt" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="matte"/>
-    </cs:spPr>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1357,22 +1414,22 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -1381,10 +1438,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1400,21 +1457,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1424,7 +1478,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1433,14 +1487,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1449,17 +1502,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1468,14 +1521,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1487,28 +1539,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1520,17 +1566,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1539,17 +1584,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1558,17 +1603,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1577,34 +1621,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:alpha val="78000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1612,11 +1648,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1624,14 +1670,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1643,12 +1689,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1657,14 +1710,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1673,9 +1725,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1685,20 +1736,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1707,9 +1757,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1719,7 +1768,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3000,63 +3049,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>9473</v>
+        <v>11253</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>21697</v>
+        <v>24498</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>3869</v>
+        <v>4348</v>
       </c>
       <c r="C22">
-        <v>3055</v>
+        <v>3390</v>
       </c>
       <c r="D22">
-        <v>10086</v>
+        <v>11977</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>3437</v>
+        <v>3890</v>
       </c>
       <c r="C23">
-        <v>3334</v>
+        <v>3760</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>1458</v>
+        <v>1638</v>
       </c>
       <c r="C24">
-        <v>2499</v>
+        <v>2708</v>
       </c>
       <c r="D24">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="C25">
-        <v>1034</v>
+        <v>1149</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3064,12 +3113,17 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="C26">
-        <v>1635</v>
+        <v>1752</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M34" t="s">
         <v>0</v>
       </c>
     </row>
